--- a/143. Reorder List/Whiteboards/Solution.xlsx
+++ b/143. Reorder List/Whiteboards/Solution.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Portalz\Desktop\Small Projects\LeetCode\0 template\Whiteboards\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Portalz\Desktop\Small Projects\LeetCode\143. Reorder List\Whiteboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713DE802-9519-4608-B352-D1C1ED0E8E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B81652-93F1-4861-9643-5FF294F223AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{756CC0B2-6BE7-4EF6-9EEE-182F71A93026}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{756CC0B2-6BE7-4EF6-9EEE-182F71A93026}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,47 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="12">
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>H|A</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
@@ -45,12 +86,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -65,9 +112,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -384,17 +434,977 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79CF585D-CE06-44D4-80AA-070156E711E0}">
-  <dimension ref="A1"/>
+  <dimension ref="D2:AV66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="4.7109375" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+    </row>
+    <row r="3" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2">
+        <v>9</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1</v>
+      </c>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2">
+        <v>8</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="Q4" s="1">
+        <v>2</v>
+      </c>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2">
+        <v>7</v>
+      </c>
+      <c r="W4" s="2"/>
+    </row>
+    <row r="5" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="R5" s="1">
+        <v>3</v>
+      </c>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2">
+        <v>6</v>
+      </c>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+    </row>
+    <row r="6" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="1">
+        <v>4</v>
+      </c>
+      <c r="I6" s="2">
+        <v>6</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="S6" s="1">
+        <v>4</v>
+      </c>
+      <c r="T6" s="2">
+        <v>5</v>
+      </c>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+    </row>
+    <row r="7" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="1">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="11" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1">
+        <v>2</v>
+      </c>
+      <c r="O11" s="1">
+        <v>3</v>
+      </c>
+      <c r="P11" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>5</v>
+      </c>
+      <c r="R11" s="1">
+        <v>6</v>
+      </c>
+      <c r="W11" s="1">
+        <v>1</v>
+      </c>
+      <c r="X11" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>7</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI11" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ11" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO11" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP11" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ11" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR11" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS11" s="1">
+        <v>6</v>
+      </c>
+      <c r="AT11" s="1">
+        <v>7</v>
+      </c>
+      <c r="AU11" s="1">
+        <v>8</v>
+      </c>
+      <c r="AV11" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN12" s="1">
+        <v>9</v>
+      </c>
+      <c r="AO12" s="1">
+        <v>8</v>
+      </c>
+      <c r="AP12" s="1">
+        <v>7</v>
+      </c>
+      <c r="AQ12" s="1">
+        <v>6</v>
+      </c>
+      <c r="AR12" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS12" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M13" s="1">
+        <v>6</v>
+      </c>
+      <c r="N13" s="1">
+        <v>5</v>
+      </c>
+      <c r="O13" s="1">
+        <v>4</v>
+      </c>
+      <c r="P13" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>2</v>
+      </c>
+      <c r="R13" s="1">
+        <v>1</v>
+      </c>
+      <c r="W13" s="1">
+        <v>7</v>
+      </c>
+      <c r="X13" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH13" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO14" s="1">
+        <v>9</v>
+      </c>
+      <c r="AP14" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ14" s="1">
+        <v>8</v>
+      </c>
+      <c r="AR14" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS14" s="1">
+        <v>7</v>
+      </c>
+      <c r="AT14" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU14" s="1">
+        <v>6</v>
+      </c>
+      <c r="AV14" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M16" s="1">
+        <v>1</v>
+      </c>
+      <c r="N16" s="1">
+        <v>6</v>
+      </c>
+      <c r="O16" s="1">
+        <v>2</v>
+      </c>
+      <c r="P16" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>3</v>
+      </c>
+      <c r="R16" s="1">
+        <v>4</v>
+      </c>
+      <c r="W16" s="1">
+        <v>1</v>
+      </c>
+      <c r="X16" s="1">
+        <v>7</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH16" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI16" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="13:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M21" s="1">
+        <v>1</v>
+      </c>
+      <c r="N21" s="1">
+        <v>3</v>
+      </c>
+      <c r="O21" s="1">
+        <v>5</v>
+      </c>
+      <c r="P21" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>4</v>
+      </c>
+      <c r="R21" s="1">
+        <v>2</v>
+      </c>
+      <c r="W21" s="1">
+        <v>1</v>
+      </c>
+      <c r="X21" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="13:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="1">
+        <v>1</v>
+      </c>
+      <c r="N22" s="1">
+        <v>2</v>
+      </c>
+      <c r="O22" s="1">
+        <v>3</v>
+      </c>
+      <c r="P22" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>5</v>
+      </c>
+      <c r="R22" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="13:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W23" s="1">
+        <v>1</v>
+      </c>
+      <c r="X23" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="13:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M25" s="1">
+        <v>1</v>
+      </c>
+      <c r="N25" s="1">
+        <v>3</v>
+      </c>
+      <c r="O25" s="1">
+        <v>5</v>
+      </c>
+      <c r="P25" s="1">
+        <v>7</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>6</v>
+      </c>
+      <c r="R25" s="1">
+        <v>4</v>
+      </c>
+      <c r="S25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="13:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M26" s="1">
+        <v>1</v>
+      </c>
+      <c r="N26" s="1">
+        <v>2</v>
+      </c>
+      <c r="O26" s="1">
+        <v>3</v>
+      </c>
+      <c r="P26" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>5</v>
+      </c>
+      <c r="R26" s="1">
+        <v>6</v>
+      </c>
+      <c r="S26" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="13:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG30" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="13:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W31" s="1">
+        <v>1</v>
+      </c>
+      <c r="X31" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z31" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA31" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB31" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC31" s="1">
+        <v>7</v>
+      </c>
+      <c r="AG31" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH31" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI31" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ31" s="1">
+        <v>5</v>
+      </c>
+      <c r="AK31" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="15:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="15:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W34" s="1">
+        <v>1</v>
+      </c>
+      <c r="X34" s="1">
+        <v>7</v>
+      </c>
+      <c r="AG34" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH34" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI34" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ34" s="1">
+        <v>5</v>
+      </c>
+      <c r="AK34" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="15:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG36" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="15:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W37" s="1">
+        <v>1</v>
+      </c>
+      <c r="X37" s="1">
+        <v>7</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z37" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA37" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB37" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC37" s="1">
+        <v>6</v>
+      </c>
+      <c r="AG37" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH37" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI37" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ37" s="1">
+        <v>5</v>
+      </c>
+      <c r="AK37" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="15:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG39" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="15:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W40" s="1">
+        <v>1</v>
+      </c>
+      <c r="X40" s="1">
+        <v>7</v>
+      </c>
+      <c r="Y40" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z40" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA40" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB40" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC40" s="1">
+        <v>6</v>
+      </c>
+      <c r="AG40" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH40" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI40" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="15:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="15:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W43" s="1">
+        <v>1</v>
+      </c>
+      <c r="X43" s="1">
+        <v>7</v>
+      </c>
+      <c r="Y43" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z43" s="1">
+        <v>6</v>
+      </c>
+      <c r="AG43" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH43" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI43" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="15:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O45" s="1">
+        <v>10</v>
+      </c>
+      <c r="P45" s="1">
+        <v>11</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>12</v>
+      </c>
+      <c r="R45" s="1">
+        <v>13</v>
+      </c>
+      <c r="W45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG45" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="15:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W46" s="1">
+        <v>1</v>
+      </c>
+      <c r="X46" s="1">
+        <v>7</v>
+      </c>
+      <c r="Y46" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z46" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA46" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB46" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC46" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG46" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH46" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI46" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="15:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG48" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="23:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W49" s="1">
+        <v>1</v>
+      </c>
+      <c r="X49" s="1">
+        <v>7</v>
+      </c>
+      <c r="Y49" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z49" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA49" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB49" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG49" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="23:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG52" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="23:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W53" s="1">
+        <v>1</v>
+      </c>
+      <c r="X53" s="1">
+        <v>7</v>
+      </c>
+      <c r="Y53" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z53" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA53" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB53" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG53" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="23:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG56" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="23:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W57" s="1">
+        <v>1</v>
+      </c>
+      <c r="X57" s="1">
+        <v>7</v>
+      </c>
+      <c r="Y57" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z57" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA57" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB57" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC57" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG57" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="23:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC62" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="23:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W63" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC63" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD63" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE63" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF63" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG63" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH63" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI63" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ63" s="1">
+        <v>7</v>
+      </c>
+      <c r="AK63" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL63" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM63" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN63" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO63" s="1">
+        <v>5</v>
+      </c>
+      <c r="AP63" s="1">
+        <v>6</v>
+      </c>
+      <c r="AQ63" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="23:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X64" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB64" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="25:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y65" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA65" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="25:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z66" s="1">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/143. Reorder List/Whiteboards/Solution.xlsx
+++ b/143. Reorder List/Whiteboards/Solution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Portalz\Desktop\Small Projects\LeetCode\143. Reorder List\Whiteboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B81652-93F1-4861-9643-5FF294F223AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C464D2E1-7072-4A75-91BB-E588BDD16F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{756CC0B2-6BE7-4EF6-9EEE-182F71A93026}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{756CC0B2-6BE7-4EF6-9EEE-182F71A93026}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="16">
   <si>
     <t>A</t>
   </si>
@@ -71,6 +71,18 @@
   </si>
   <si>
     <t>f</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>p3</t>
   </si>
 </sst>
 </file>
@@ -437,7 +449,7 @@
   <dimension ref="D2:AV66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X25" sqref="X25"/>
+      <selection activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -470,6 +482,33 @@
       <c r="W3" s="2">
         <v>8</v>
       </c>
+      <c r="AB3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>6</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>7</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>8</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="1">
@@ -607,18 +646,6 @@
       <c r="AR11" s="1">
         <v>5</v>
       </c>
-      <c r="AS11" s="1">
-        <v>6</v>
-      </c>
-      <c r="AT11" s="1">
-        <v>7</v>
-      </c>
-      <c r="AU11" s="1">
-        <v>8</v>
-      </c>
-      <c r="AV11" s="1">
-        <v>9</v>
-      </c>
     </row>
     <row r="12" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AN12" s="1">
@@ -633,12 +660,6 @@
       <c r="AQ12" s="1">
         <v>6</v>
       </c>
-      <c r="AR12" s="1">
-        <v>5</v>
-      </c>
-      <c r="AS12" s="1">
-        <v>4</v>
-      </c>
     </row>
     <row r="13" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M13" s="1">
@@ -775,7 +796,46 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="13:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="4:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ19" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="4:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AO20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP20" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ20" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR20" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="4:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M21" s="1">
         <v>1</v>
       </c>
@@ -813,7 +873,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="13:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
       <c r="M22" s="1">
         <v>1</v>
       </c>
@@ -832,8 +895,11 @@
       <c r="R22" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="13:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AR22" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="4:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W23" s="1">
         <v>1</v>
       </c>
@@ -855,8 +921,31 @@
       <c r="AC23" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="13:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AP23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS23" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="4:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AP24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR24" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS24" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="4:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M25" s="1">
         <v>1</v>
       </c>
@@ -879,7 +968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="13:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M26" s="1">
         <v>1</v>
       </c>
@@ -901,8 +990,30 @@
       <c r="S26" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="13:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AO26" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="4:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AO27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ27" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="4:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AO28" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP28" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="4:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W30" s="1" t="s">
         <v>3</v>
       </c>
@@ -928,7 +1039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="13:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W31" s="1">
         <v>1</v>
       </c>
